--- a/Assets/06.Table/FallCollection.xlsx
+++ b/Assets/06.Table/FallCollection.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B046913A-D378-418F-941F-07A12084ACE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86FA62F-5042-41A3-B45C-BCEACEE8CCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FallCollection" sheetId="1" r:id="rId1"/>
+    <sheet name="count" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FallCollection!$A$1:$I$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FallCollection!$A$1:$I$6</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,34 +59,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>옥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구슬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>티켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영혼열쇠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>복숭아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요괴불꽃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>exchangeKey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,14 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>검조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천계꽃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ec_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>도깨비불</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수미꽃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,10 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수박외형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>한복호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,19 +255,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수호환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ec_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상어 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스크림 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말괄량이 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심득조각</t>
+  </si>
+  <si>
+    <t>심득조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술꽃</t>
+  </si>
+  <si>
+    <t>도술꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼석</t>
+  </si>
+  <si>
+    <t>수미꽃</t>
+  </si>
+  <si>
+    <t>여우불씨</t>
+  </si>
+  <si>
+    <t>여우불씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보리 수확 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemvalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +341,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -345,8 +376,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -663,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -695,16 +738,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -712,25 +755,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9016</v>
+        <v>9043</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>20000</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F2">
         <v>500000</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -741,25 +784,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9010</v>
+        <v>9032</v>
       </c>
       <c r="C3">
-        <v>2500</v>
+        <v>200000</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>500000</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -770,25 +813,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="C4">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="F4">
         <v>500000</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H4">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -799,25 +842,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9001</v>
+        <v>9010</v>
       </c>
       <c r="C5">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>500000</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -828,25 +871,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>88</v>
+        <v>9008</v>
       </c>
       <c r="C6">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>500000</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H6">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -857,22 +900,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>1453</v>
       </c>
       <c r="C7">
-        <v>1500</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="F7">
-        <v>500000</v>
+        <v>7000000</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -880,22 +923,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>1444</v>
       </c>
       <c r="C8">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F8">
-        <v>500000</v>
+        <v>7000000</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -903,22 +946,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>1419</v>
       </c>
       <c r="C9">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="F9">
-        <v>500000</v>
+        <v>7000000</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -926,22 +969,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>1431</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="F10">
-        <v>500000</v>
+        <v>7000000</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -949,22 +992,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>1409</v>
       </c>
       <c r="C11">
-        <v>600000</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="F11">
-        <v>500000</v>
+        <v>7000000</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -972,22 +1015,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>1400</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="F12">
-        <v>500000</v>
+        <v>7000000</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -995,22 +1038,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>1292</v>
       </c>
       <c r="C13">
-        <v>5000000</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="F13">
-        <v>500000</v>
+        <v>7000000</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1018,7 +1061,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1436</v>
+        <v>1291</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1027,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F14">
         <v>7000000</v>
@@ -1041,16 +1084,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1409</v>
+        <v>1284</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="F15">
         <v>7000000</v>
@@ -1064,16 +1104,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1400</v>
+        <v>1277</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="F16">
         <v>7000000</v>
@@ -1087,16 +1124,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1292</v>
+        <v>1270</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="F17">
         <v>7000000</v>
@@ -1110,16 +1144,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1291</v>
+        <v>1264</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="F18">
         <v>7000000</v>
@@ -1133,13 +1164,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1284</v>
+        <v>1263</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F19">
         <v>7000000</v>
@@ -1153,13 +1184,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1277</v>
+        <v>1262</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F20">
         <v>7000000</v>
@@ -1173,13 +1207,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1270</v>
+        <v>1256</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F21">
         <v>7000000</v>
@@ -1193,13 +1227,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1264</v>
+        <v>1255</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F22">
         <v>7000000</v>
@@ -1213,13 +1247,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1263</v>
+        <v>1253</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F23">
         <v>7000000</v>
@@ -1233,16 +1267,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1262</v>
+        <v>1251</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F24">
         <v>7000000</v>
@@ -1256,13 +1287,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F25">
         <v>7000000</v>
@@ -1276,13 +1307,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F26">
         <v>7000000</v>
@@ -1296,13 +1330,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F27">
         <v>7000000</v>
@@ -1316,13 +1350,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1251</v>
+        <v>1239</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F28">
         <v>7000000</v>
@@ -1336,13 +1373,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1250</v>
+        <v>1238</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F29">
         <v>7000000</v>
@@ -1356,7 +1396,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1247</v>
+        <v>1235</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1365,10 +1405,10 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F30">
-        <v>7000000</v>
+        <v>9000000</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
@@ -1379,13 +1419,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F31">
         <v>7000000</v>
@@ -1399,7 +1442,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1408,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F32">
         <v>7000000</v>
@@ -1422,7 +1465,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1431,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F33">
         <v>7000000</v>
@@ -1445,7 +1488,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1454,10 +1497,10 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F34">
-        <v>9000000</v>
+        <v>7000000</v>
       </c>
       <c r="I34" t="b">
         <v>1</v>
@@ -1468,7 +1511,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1477,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F35">
         <v>7000000</v>
@@ -1491,7 +1534,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1500,10 +1543,10 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F36">
-        <v>7000000</v>
+        <v>9000000</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
@@ -1514,7 +1557,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1523,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F37">
         <v>7000000</v>
@@ -1537,7 +1580,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1546,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F38">
         <v>7000000</v>
@@ -1560,7 +1603,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1569,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F39">
         <v>7000000</v>
@@ -1583,7 +1626,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1592,10 +1635,10 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F40">
-        <v>9000000</v>
+        <v>7000000</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
@@ -1606,7 +1649,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1225</v>
+        <v>1216</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1615,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F41">
         <v>7000000</v>
@@ -1629,7 +1672,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1224</v>
+        <v>1215</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1638,10 +1681,10 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F42">
-        <v>7000000</v>
+        <v>5000000</v>
       </c>
       <c r="I42" t="b">
         <v>1</v>
@@ -1652,7 +1695,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1223</v>
+        <v>1214</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1661,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F43">
         <v>7000000</v>
@@ -1675,7 +1718,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1684,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F44">
         <v>7000000</v>
@@ -1698,7 +1741,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1707,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F45">
         <v>7000000</v>
@@ -1721,7 +1764,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1730,10 +1773,10 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F46">
-        <v>5000000</v>
+        <v>7000000</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
@@ -1744,7 +1787,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1753,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F47">
         <v>7000000</v>
@@ -1767,7 +1810,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1776,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F48">
         <v>7000000</v>
@@ -1790,7 +1833,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1799,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F49">
         <v>7000000</v>
@@ -1808,106 +1851,143 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>1210</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F50">
-        <v>7000000</v>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>1209</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
-        <v>35</v>
-      </c>
-      <c r="F51">
-        <v>7000000</v>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>1208</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" t="s">
-        <v>63</v>
-      </c>
-      <c r="F52">
-        <v>7000000</v>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>1207</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
-        <v>62</v>
-      </c>
-      <c r="F53">
-        <v>7000000</v>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I53" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I53">
-      <sortCondition descending="1" ref="B1:B53"/>
+  <autoFilter ref="A1:I6" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I6">
+      <sortCondition descending="1" ref="B1:B6"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F89D7FB-D4A8-4A5C-94CE-22843FFB03B6}">
+  <dimension ref="B4:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>9043</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>500</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="4">
+        <f>C7*D7</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>9032</v>
+      </c>
+      <c r="C8" s="2">
+        <v>200000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>500</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="4">
+        <f>C8*D8</f>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>9026</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>500</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="4">
+        <f>C9*D9</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>9010</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D10" s="2">
+        <v>600</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="4">
+        <f>C10*D10</f>
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>9008</v>
+      </c>
+      <c r="C11" s="2">
+        <v>700</v>
+      </c>
+      <c r="D11" s="2">
+        <v>600</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="4">
+        <f>C11*D11</f>
+        <v>420000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/06.Table/FallCollection.xlsx
+++ b/Assets/06.Table/FallCollection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86FA62F-5042-41A3-B45C-BCEACEE8CCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23089EDD-DB19-4AA1-8BFC-DAC199731454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,221 +87,201 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>왕자 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀족 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀족 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한가위 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천사 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천사 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강시 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강시 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여포 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은토끼 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현무호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법사호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈귀신호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈귀신호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴마사호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벚꽃호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장군호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치파오호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이무기호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이무기호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선녀호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나비호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병아리호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견우호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직녀호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바다호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마교호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마교호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공주호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단풍호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머슴호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린이호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한복호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한복호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ec_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상어 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스크림 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말괄량이 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심득조각</t>
+  </si>
+  <si>
+    <t>도술꽃</t>
+  </si>
+  <si>
+    <t>영혼석</t>
+  </si>
+  <si>
     <t>수미꽃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영혼석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왕자 호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀족 호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀족 호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한가위 호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천사 호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천사 호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강시 호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강시 호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여포 호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검은토끼 호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현무호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Active</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>법사호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>악마호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>악마호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여우호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈귀신호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈귀신호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퇴마사호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벚꽃호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대장군호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치파오호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이무기호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이무기호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선녀호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나비호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병아리호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견우호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직녀호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바다호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마교호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마교호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공주호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단풍호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>머슴호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주작호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백호호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어린이호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한복호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한복호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ec_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청룡 호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상어 호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스크림 호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>말괄량이 호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>심득조각</t>
-  </si>
-  <si>
-    <t>심득조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도술꽃</t>
-  </si>
-  <si>
-    <t>도술꽃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영혼석</t>
-  </si>
-  <si>
-    <t>수미꽃</t>
   </si>
   <si>
     <t>여우불씨</t>
   </si>
   <si>
-    <t>여우불씨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보리 수확 이벤트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,6 +299,24 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>만두 빚기 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극조각</t>
+  </si>
+  <si>
+    <t>태극조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요석</t>
+  </si>
+  <si>
+    <t>요석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -709,7 +707,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -747,7 +745,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -755,16 +753,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9043</v>
+        <v>9049</v>
       </c>
       <c r="C2">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F2">
         <v>500000</v>
@@ -784,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9032</v>
+        <v>9048</v>
       </c>
       <c r="C3">
-        <v>200000</v>
+        <v>2000</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F3">
         <v>500000</v>
@@ -813,16 +811,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9026</v>
+        <v>9043</v>
       </c>
       <c r="C4">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F4">
         <v>500000</v>
@@ -842,16 +840,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9010</v>
+        <v>9032</v>
       </c>
       <c r="C5">
-        <v>3000</v>
+        <v>400000</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F5">
         <v>500000</v>
@@ -871,22 +869,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="C6">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F6">
         <v>500000</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H6">
         <v>600</v>
@@ -909,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <v>7000000</v>
@@ -932,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8">
         <v>7000000</v>
@@ -955,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F9">
         <v>7000000</v>
@@ -978,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F10">
         <v>7000000</v>
@@ -1001,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F11">
         <v>7000000</v>
@@ -1024,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F12">
         <v>7000000</v>
@@ -1047,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F13">
         <v>7000000</v>
@@ -1070,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F14">
         <v>7000000</v>
@@ -1090,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F15">
         <v>7000000</v>
@@ -1110,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F16">
         <v>7000000</v>
@@ -1130,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F17">
         <v>7000000</v>
@@ -1150,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F18">
         <v>7000000</v>
@@ -1170,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F19">
         <v>7000000</v>
@@ -1193,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F20">
         <v>7000000</v>
@@ -1213,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F21">
         <v>7000000</v>
@@ -1233,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F22">
         <v>7000000</v>
@@ -1253,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F23">
         <v>7000000</v>
@@ -1273,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F24">
         <v>7000000</v>
@@ -1293,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F25">
         <v>7000000</v>
@@ -1316,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F26">
         <v>7000000</v>
@@ -1336,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F27">
         <v>7000000</v>
@@ -1359,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F28">
         <v>7000000</v>
@@ -1382,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F29">
         <v>7000000</v>
@@ -1405,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F30">
         <v>9000000</v>
@@ -1428,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F31">
         <v>7000000</v>
@@ -1451,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F32">
         <v>7000000</v>
@@ -1474,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F33">
         <v>7000000</v>
@@ -1497,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F34">
         <v>7000000</v>
@@ -1520,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F35">
         <v>7000000</v>
@@ -1543,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F36">
         <v>9000000</v>
@@ -1566,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F37">
         <v>7000000</v>
@@ -1589,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F38">
         <v>7000000</v>
@@ -1612,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F39">
         <v>7000000</v>
@@ -1635,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F40">
         <v>7000000</v>
@@ -1658,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F41">
         <v>7000000</v>
@@ -1681,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F42">
         <v>5000000</v>
@@ -1704,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F43">
         <v>7000000</v>
@@ -1727,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F44">
         <v>7000000</v>
@@ -1750,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F45">
         <v>7000000</v>
@@ -1773,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F46">
         <v>7000000</v>
@@ -1796,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F47">
         <v>7000000</v>
@@ -1819,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48">
         <v>7000000</v>
@@ -1842,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49">
         <v>7000000</v>
@@ -1865,10 +1863,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F89D7FB-D4A8-4A5C-94CE-22843FFB03B6}">
-  <dimension ref="B4:F11"/>
+  <dimension ref="B4:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1879,21 +1877,21 @@
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
@@ -1907,7 +1905,7 @@
         <v>500</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F7" s="4">
         <f>C7*D7</f>
@@ -1925,7 +1923,7 @@
         <v>500</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F8" s="4">
         <f>C8*D8</f>
@@ -1943,7 +1941,7 @@
         <v>500</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F9" s="4">
         <f>C9*D9</f>
@@ -1961,7 +1959,7 @@
         <v>600</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F10" s="4">
         <f>C10*D10</f>
@@ -1979,11 +1977,120 @@
         <v>600</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F11" s="4">
         <f>C11*D11</f>
         <v>420000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>9049</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="2">
+        <v>500</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="4">
+        <f>C16*D16</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>9048</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D17" s="2">
+        <v>500</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="4">
+        <f>C17*D17</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>9043</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D18" s="2">
+        <v>500</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="4">
+        <f>C18*D18</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <v>9032</v>
+      </c>
+      <c r="C19" s="2">
+        <v>200000</v>
+      </c>
+      <c r="D19" s="2">
+        <v>600</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="4">
+        <f>C19*D19</f>
+        <v>120000000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <v>9026</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D20" s="2">
+        <v>600</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="4">
+        <f>C20*D20</f>
+        <v>1200000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FallCollection.xlsx
+++ b/Assets/06.Table/FallCollection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23089EDD-DB19-4AA1-8BFC-DAC199731454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E1164C-2C71-4A82-8994-125612F10B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,6 +316,17 @@
   </si>
   <si>
     <t>요석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈의기운</t>
+  </si>
+  <si>
+    <t>혈의기운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌꿀 수집 이벤트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,9 +419,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -448,7 +459,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -554,7 +565,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -696,7 +707,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -707,7 +718,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -753,16 +764,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9049</v>
+        <v>9065</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F2">
         <v>500000</v>
@@ -782,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9048</v>
+        <v>9049</v>
       </c>
       <c r="C3">
         <v>2000</v>
@@ -791,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F3">
         <v>500000</v>
@@ -811,16 +822,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9043</v>
+        <v>9048</v>
       </c>
       <c r="C4">
-        <v>40000</v>
+        <v>3000</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F4">
         <v>500000</v>
@@ -840,16 +851,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9032</v>
+        <v>9043</v>
       </c>
       <c r="C5">
-        <v>400000</v>
+        <v>50000</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5">
         <v>500000</v>
@@ -869,16 +880,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="C6">
-        <v>2000</v>
+        <v>500000</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F6">
         <v>500000</v>
@@ -1863,10 +1874,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F89D7FB-D4A8-4A5C-94CE-22843FFB03B6}">
-  <dimension ref="B4:F20"/>
+  <dimension ref="B4:F29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C20"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2093,6 +2104,115 @@
         <v>1200000</v>
       </c>
     </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <v>9065</v>
+      </c>
+      <c r="C25" s="2">
+        <v>500</v>
+      </c>
+      <c r="D25" s="2">
+        <v>500</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="4">
+        <f>C25*D25</f>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <v>9049</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D26" s="2">
+        <v>500</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="4">
+        <f>C26*D26</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <v>9048</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D27" s="2">
+        <v>500</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="4">
+        <f>C27*D27</f>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
+        <v>9043</v>
+      </c>
+      <c r="C28" s="2">
+        <v>50000</v>
+      </c>
+      <c r="D28" s="2">
+        <v>600</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="4">
+        <f>C28*D28</f>
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
+        <v>9032</v>
+      </c>
+      <c r="C29" s="2">
+        <v>500000</v>
+      </c>
+      <c r="D29" s="2">
+        <v>600</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="4">
+        <f>C29*D29</f>
+        <v>300000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/FallCollection.xlsx
+++ b/Assets/06.Table/FallCollection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E1164C-2C71-4A82-8994-125612F10B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832E0010-A0A3-4AFE-B722-E75F651DB596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -767,7 +767,7 @@
         <v>9065</v>
       </c>
       <c r="C2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -796,7 +796,7 @@
         <v>9049</v>
       </c>
       <c r="C3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -825,7 +825,7 @@
         <v>9048</v>
       </c>
       <c r="C4">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -854,7 +854,7 @@
         <v>9043</v>
       </c>
       <c r="C5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -883,7 +883,7 @@
         <v>9032</v>
       </c>
       <c r="C6">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="D6">
         <v>1</v>

--- a/Assets/06.Table/FallCollection.xlsx
+++ b/Assets/06.Table/FallCollection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832E0010-A0A3-4AFE-B722-E75F651DB596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900A098A-1538-4C7E-B324-E30440874863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FallCollection" sheetId="1" r:id="rId1"/>
@@ -718,7 +718,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -767,7 +767,7 @@
         <v>9065</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -796,7 +796,7 @@
         <v>9049</v>
       </c>
       <c r="C3">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -825,7 +825,7 @@
         <v>9048</v>
       </c>
       <c r="C4">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -854,7 +854,7 @@
         <v>9043</v>
       </c>
       <c r="C5">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -883,7 +883,7 @@
         <v>9032</v>
       </c>
       <c r="C6">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="D6">
         <v>1</v>
